--- a/logindata.xlsx
+++ b/logindata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Main CodeBase\readyapitest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Main CodeBase\readyapitest\swagger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA9EC85-C566-4A16-9547-6898CB3E478B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0627F7-9E49-43FE-AF25-085F238A3B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="26">
   <si>
     <t>firstName</t>
   </si>
@@ -48,18 +48,9 @@
     <t>Kumari</t>
   </si>
   <si>
-    <t>chinni</t>
-  </si>
-  <si>
-    <t>jyosna</t>
-  </si>
-  <si>
     <t>kathi</t>
   </si>
   <si>
-    <t>kanna</t>
-  </si>
-  <si>
     <t>abc@gmail.com</t>
   </si>
   <si>
@@ -78,12 +69,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>chintu</t>
-  </si>
-  <si>
-    <t>bantu</t>
-  </si>
-  <si>
     <t>200</t>
   </si>
   <si>
@@ -105,13 +90,19 @@
     <t>deleteresponse</t>
   </si>
   <si>
-    <t xml:space="preserve"> PUT Request 1#Response#$['code']}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GET Request 1#HarResponse#$['status']}</t>
-  </si>
-  <si>
     <t xml:space="preserve"> DELETE Request 1#Response#$['code']}</t>
+  </si>
+  <si>
+    <t>Lakshmi Kumari</t>
+  </si>
+  <si>
+    <t>Lakshmi Kathi</t>
+  </si>
+  <si>
+    <t>Chervik</t>
+  </si>
+  <si>
+    <t>Chervik Kathi</t>
   </si>
 </sst>
 </file>
@@ -444,7 +435,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -454,10 +445,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -475,104 +466,104 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
         <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
       </c>
       <c r="G2">
         <v>9087654321</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
       </c>
       <c r="G3">
         <v>1234567890</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/logindata.xlsx
+++ b/logindata.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="26">
   <si>
     <t>firstName</t>
   </si>
